--- a/CategoricalEncodingnyaPakaiApa.xlsx
+++ b/CategoricalEncodingnyaPakaiApa.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__DOWNLOADS\_AIForINDONESIA\Codes\git\learnWithAIforIndonesia\Sesixxx_Project03\bahan\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3685BA6C-A2F5-406D-B990-00FD91CF2496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE839B82-B839-4A69-976C-74D10B8585C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26310" windowHeight="16440" xr2:uid="{AD42B35F-FB96-4B0E-B471-657D9EFC0F00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26310" windowHeight="16440" activeTab="1" xr2:uid="{AD42B35F-FB96-4B0E-B471-657D9EFC0F00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="ListOfFeature" sheetId="1" r:id="rId1"/>
+    <sheet name="FeatureGrouping" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$L$1:$M$525</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FeatureGrouping!$A$1:$G$524</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ListOfFeature!$B$1:$U$525</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="820">
   <si>
     <t>.</t>
   </si>
@@ -1893,13 +1895,619 @@
   </si>
   <si>
     <t>No need already in scaling format</t>
+  </si>
+  <si>
+    <t>'txt_street',</t>
+  </si>
+  <si>
+    <t>'txt_alley',</t>
+  </si>
+  <si>
+    <t>'txt_landslope',</t>
+  </si>
+  <si>
+    <t>'txt_centralair',</t>
+  </si>
+  <si>
+    <t>'txt_paveddrive',</t>
+  </si>
+  <si>
+    <t>'txt_mssubclass',</t>
+  </si>
+  <si>
+    <t>'txt_mszoning',</t>
+  </si>
+  <si>
+    <t>'txt_lotshape',</t>
+  </si>
+  <si>
+    <t>'txt_landcontour',</t>
+  </si>
+  <si>
+    <t>'txt_utilities',</t>
+  </si>
+  <si>
+    <t>'txt_lotconfig',</t>
+  </si>
+  <si>
+    <t>'txt_neighborhood',</t>
+  </si>
+  <si>
+    <t>'txt_condition1',</t>
+  </si>
+  <si>
+    <t>'txt_condition2',</t>
+  </si>
+  <si>
+    <t>'txt_bldgtype',</t>
+  </si>
+  <si>
+    <t>'txt_housestyle',</t>
+  </si>
+  <si>
+    <t>'txt_roofstyle',</t>
+  </si>
+  <si>
+    <t>'txt_roofmatl',</t>
+  </si>
+  <si>
+    <t>'txt_exterior1st',</t>
+  </si>
+  <si>
+    <t>'txt_exterior2nd',</t>
+  </si>
+  <si>
+    <t>'txt_masvnrtype',</t>
+  </si>
+  <si>
+    <t>'txt_exterqual',</t>
+  </si>
+  <si>
+    <t>'txt_extercond',</t>
+  </si>
+  <si>
+    <t>'txt_foundation',</t>
+  </si>
+  <si>
+    <t>'txt_bsmtqual',</t>
+  </si>
+  <si>
+    <t>'txt_bsmtcond',</t>
+  </si>
+  <si>
+    <t>'txt_bsmtexposure',</t>
+  </si>
+  <si>
+    <t>'txt_bsmtfintype1',</t>
+  </si>
+  <si>
+    <t>'txt_bsmtfintype2',</t>
+  </si>
+  <si>
+    <t>'txt_heating',</t>
+  </si>
+  <si>
+    <t>'txt_heatingqc',</t>
+  </si>
+  <si>
+    <t>'txt_electrical',</t>
+  </si>
+  <si>
+    <t>'txt_kitchenqual',</t>
+  </si>
+  <si>
+    <t>'txt_functional',</t>
+  </si>
+  <si>
+    <t>'txt_fireplacequ',</t>
+  </si>
+  <si>
+    <t>'txt_garagetype',</t>
+  </si>
+  <si>
+    <t>'txt_garagefinish',</t>
+  </si>
+  <si>
+    <t>'txt_garagequal',</t>
+  </si>
+  <si>
+    <t>'txt_garagecond',</t>
+  </si>
+  <si>
+    <t>'txt_poolqc',</t>
+  </si>
+  <si>
+    <t>'txt_fence',</t>
+  </si>
+  <si>
+    <t>'txt_miscfeature',</t>
+  </si>
+  <si>
+    <t>'txt_saletype',</t>
+  </si>
+  <si>
+    <t>'txt_salecondition',</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>UniqueValueCount</t>
+  </si>
+  <si>
+    <t>txt_mssubclass</t>
+  </si>
+  <si>
+    <t>txt_mszoning</t>
+  </si>
+  <si>
+    <t>txt_street</t>
+  </si>
+  <si>
+    <t>txt_alley</t>
+  </si>
+  <si>
+    <t>txt_lotshape</t>
+  </si>
+  <si>
+    <t>txt_landcontour</t>
+  </si>
+  <si>
+    <t>txt_utilities</t>
+  </si>
+  <si>
+    <t>txt_lotconfig</t>
+  </si>
+  <si>
+    <t>txt_landslope</t>
+  </si>
+  <si>
+    <t>txt_neighborhood</t>
+  </si>
+  <si>
+    <t>txt_condition1</t>
+  </si>
+  <si>
+    <t>txt_condition2</t>
+  </si>
+  <si>
+    <t>txt_bldgtype</t>
+  </si>
+  <si>
+    <t>txt_housestyle</t>
+  </si>
+  <si>
+    <t>="txt_"&amp;LOWER(M18)&amp;"</t>
+  </si>
+  <si>
+    <t>&amp;N18</t>
+  </si>
+  <si>
+    <t>="txt_"&amp;LOWER(M19)&amp;"</t>
+  </si>
+  <si>
+    <t>&amp;N19</t>
+  </si>
+  <si>
+    <t>txt_roofstyle</t>
+  </si>
+  <si>
+    <t>txt_roofmatl</t>
+  </si>
+  <si>
+    <t>txt_exterior1st</t>
+  </si>
+  <si>
+    <t>txt_exterior2nd</t>
+  </si>
+  <si>
+    <t>txt_masvnrtype</t>
+  </si>
+  <si>
+    <t>txt_exterqual</t>
+  </si>
+  <si>
+    <t>txt_extercond</t>
+  </si>
+  <si>
+    <t>txt_foundation</t>
+  </si>
+  <si>
+    <t>txt_bsmtqual</t>
+  </si>
+  <si>
+    <t>txt_bsmtcond</t>
+  </si>
+  <si>
+    <t>txt_bsmtexposure</t>
+  </si>
+  <si>
+    <t>txt_bsmtfintype1</t>
+  </si>
+  <si>
+    <t>txt_bsmtfintype2</t>
+  </si>
+  <si>
+    <t>txt_heating</t>
+  </si>
+  <si>
+    <t>txt_heatingqc</t>
+  </si>
+  <si>
+    <t>txt_centralair</t>
+  </si>
+  <si>
+    <t>txt_electrical</t>
+  </si>
+  <si>
+    <t>txt_kitchenqual</t>
+  </si>
+  <si>
+    <t>txt_functional</t>
+  </si>
+  <si>
+    <t>txt_fireplacequ</t>
+  </si>
+  <si>
+    <t>txt_garagetype</t>
+  </si>
+  <si>
+    <t>txt_garagefinish</t>
+  </si>
+  <si>
+    <t>txt_garagequal</t>
+  </si>
+  <si>
+    <t>txt_garagecond</t>
+  </si>
+  <si>
+    <t>txt_paveddrive</t>
+  </si>
+  <si>
+    <t>txt_poolqc</t>
+  </si>
+  <si>
+    <t>txt_fence</t>
+  </si>
+  <si>
+    <t>txt_miscfeature</t>
+  </si>
+  <si>
+    <t>txt_saletype</t>
+  </si>
+  <si>
+    <t>txt_salecondition</t>
+  </si>
+  <si>
+    <t>'txt_mssubclass'</t>
+  </si>
+  <si>
+    <t>'txt_mszoning'</t>
+  </si>
+  <si>
+    <t>'num_lotfrontage'</t>
+  </si>
+  <si>
+    <t>'num_lotarea'</t>
+  </si>
+  <si>
+    <t>'txt_street'</t>
+  </si>
+  <si>
+    <t>'txt_alley'</t>
+  </si>
+  <si>
+    <t>'txt_lotshape'</t>
+  </si>
+  <si>
+    <t>'txt_landcontour'</t>
+  </si>
+  <si>
+    <t>'txt_utilities'</t>
+  </si>
+  <si>
+    <t>'txt_lotconfig'</t>
+  </si>
+  <si>
+    <t>'txt_landslope'</t>
+  </si>
+  <si>
+    <t>'txt_neighborhood'</t>
+  </si>
+  <si>
+    <t>'txt_condition1'</t>
+  </si>
+  <si>
+    <t>'txt_condition2'</t>
+  </si>
+  <si>
+    <t>'txt_bldgtype'</t>
+  </si>
+  <si>
+    <t>'txt_housestyle'</t>
+  </si>
+  <si>
+    <t>'num_overallqual'</t>
+  </si>
+  <si>
+    <t>'num_overallcond'</t>
+  </si>
+  <si>
+    <t>'num_yearbuilt'</t>
+  </si>
+  <si>
+    <t>'num_yearremodadd'</t>
+  </si>
+  <si>
+    <t>'txt_roofstyle'</t>
+  </si>
+  <si>
+    <t>'txt_roofmatl'</t>
+  </si>
+  <si>
+    <t>'txt_exterior1st'</t>
+  </si>
+  <si>
+    <t>'txt_exterior2nd'</t>
+  </si>
+  <si>
+    <t>'txt_masvnrtype'</t>
+  </si>
+  <si>
+    <t>'num_masvnrarea'</t>
+  </si>
+  <si>
+    <t>'txt_exterqual'</t>
+  </si>
+  <si>
+    <t>'txt_extercond'</t>
+  </si>
+  <si>
+    <t>'txt_foundation'</t>
+  </si>
+  <si>
+    <t>'txt_bsmtqual'</t>
+  </si>
+  <si>
+    <t>'txt_bsmtcond'</t>
+  </si>
+  <si>
+    <t>'txt_bsmtexposure'</t>
+  </si>
+  <si>
+    <t>'txt_bsmtfintype1'</t>
+  </si>
+  <si>
+    <t>'num_bsmtfinsf1'</t>
+  </si>
+  <si>
+    <t>'txt_bsmtfintype2'</t>
+  </si>
+  <si>
+    <t>'num_bsmtfinsf2'</t>
+  </si>
+  <si>
+    <t>'num_bsmtunfsf'</t>
+  </si>
+  <si>
+    <t>'num_totalbsmtsf'</t>
+  </si>
+  <si>
+    <t>'txt_heating'</t>
+  </si>
+  <si>
+    <t>'txt_heatingqc'</t>
+  </si>
+  <si>
+    <t>'txt_centralair'</t>
+  </si>
+  <si>
+    <t>'txt_electrical'</t>
+  </si>
+  <si>
+    <t>'num_1stflrsf'</t>
+  </si>
+  <si>
+    <t>'num_2ndflrsf'</t>
+  </si>
+  <si>
+    <t>'num_lowqualfinsf'</t>
+  </si>
+  <si>
+    <t>'num_grlivarea'</t>
+  </si>
+  <si>
+    <t>'num_bsmtfullbath'</t>
+  </si>
+  <si>
+    <t>'num_bsmthalfbath'</t>
+  </si>
+  <si>
+    <t>'num_fullbath'</t>
+  </si>
+  <si>
+    <t>'num_halfbath'</t>
+  </si>
+  <si>
+    <t>'num_bedroomabvgr'</t>
+  </si>
+  <si>
+    <t>'num_kitchenabvgr'</t>
+  </si>
+  <si>
+    <t>'txt_kitchenqual'</t>
+  </si>
+  <si>
+    <t>'num_totrmsabvgrd'</t>
+  </si>
+  <si>
+    <t>'txt_functional'</t>
+  </si>
+  <si>
+    <t>'num_fireplaces'</t>
+  </si>
+  <si>
+    <t>'txt_fireplacequ'</t>
+  </si>
+  <si>
+    <t>'txt_garagetype'</t>
+  </si>
+  <si>
+    <t>'num_garageyrblt'</t>
+  </si>
+  <si>
+    <t>'txt_garagefinish'</t>
+  </si>
+  <si>
+    <t>'num_garagecars'</t>
+  </si>
+  <si>
+    <t>'num_garagearea'</t>
+  </si>
+  <si>
+    <t>'txt_garagequal'</t>
+  </si>
+  <si>
+    <t>'txt_garagecond'</t>
+  </si>
+  <si>
+    <t>'txt_paveddrive'</t>
+  </si>
+  <si>
+    <t>'num_wooddecksf'</t>
+  </si>
+  <si>
+    <t>'num_openporchsf'</t>
+  </si>
+  <si>
+    <t>'num_enclosedporch'</t>
+  </si>
+  <si>
+    <t>'num_3ssnporch'</t>
+  </si>
+  <si>
+    <t>'num_screenporch'</t>
+  </si>
+  <si>
+    <t>'num_poolarea'</t>
+  </si>
+  <si>
+    <t>'txt_poolqc'</t>
+  </si>
+  <si>
+    <t>'txt_fence'</t>
+  </si>
+  <si>
+    <t>'txt_miscfeature'</t>
+  </si>
+  <si>
+    <t>'num_miscval'</t>
+  </si>
+  <si>
+    <t>'num_mosold'</t>
+  </si>
+  <si>
+    <t>'num_yrsold'</t>
+  </si>
+  <si>
+    <t>'txt_saletype'</t>
+  </si>
+  <si>
+    <t>'txt_salecondition'</t>
+  </si>
+  <si>
+    <t>'num_saleprice'</t>
+  </si>
+  <si>
+    <t>Qualities</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>neighbour</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>InteriorExterior</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>InteriorE1terior</t>
+  </si>
+  <si>
+    <t>feature_</t>
+  </si>
+  <si>
+    <t>Feature_ori</t>
+  </si>
+  <si>
+    <t>var_count</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Long Desc</t>
+  </si>
+  <si>
+    <t>usageCount</t>
+  </si>
+  <si>
+    <t>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</t>
+  </si>
+  <si>
+    <t>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond','txt_salecondition'</t>
+  </si>
+  <si>
+    <t>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</t>
+  </si>
+  <si>
+    <t>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt','num_mosold','num_yrsold'</t>
+  </si>
+  <si>
+    <t>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</t>
+  </si>
+  <si>
+    <t>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional','txt_saletype'</t>
+  </si>
+  <si>
+    <t>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</t>
+  </si>
+  <si>
+    <t>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature','num_miscval'</t>
+  </si>
+  <si>
+    <t>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</t>
+  </si>
+  <si>
+    <t>dfnya['new_house_age'] = (dfnya['num_yrsold'] - (dfnya['num_yearbuilt']))</t>
+  </si>
+  <si>
+    <t>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1919,8 +2527,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1930,6 +2544,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1946,13 +2572,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2287,30 +2929,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E74AD97-EEC6-421A-A455-60CC4C7FA11E}">
-  <dimension ref="B1:S525"/>
+  <dimension ref="B1:V576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="D447" sqref="D447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="80.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="31.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
         <f>IF(LEN(C1)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2321,11 +2965,18 @@
       <c r="P1" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>IF(LEN(C2)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2342,19 +2993,25 @@
       <c r="P2" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <f>M2-R2</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R2">
-        <f>FIND(",",P2)</f>
-        <v>15</v>
-      </c>
-      <c r="S2" t="str">
-        <f>LEFT(P2,R2)</f>
-        <v>txt_mssubclass,</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U2" t="str">
+        <f>"'"&amp;Q2&amp;"',"</f>
+        <v>'txt_mssubclass',</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>IF(LEN(C3)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -2390,19 +3047,25 @@
       <c r="P3" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="R3" s="1">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S66" si="0">M3-R3</f>
+        <v>3</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R66" si="0">FIND(",",P3)</f>
-        <v>13</v>
-      </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S66" si="1">LEFT(P3,R3)</f>
-        <v>txt_mszoning,</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U3" t="str">
+        <f>"'"&amp;Q3&amp;"',"</f>
+        <v>'txt_mszoning',</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>IF(LEN(C4)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2435,16 +3098,16 @@
       <c r="N4" t="s">
         <v>410</v>
       </c>
-      <c r="R4" t="e">
+      <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S4" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U4" t="str">
+        <f>"'"&amp;Q4&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>IF(LEN(C5)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2483,16 +3146,16 @@
       <c r="N5" t="s">
         <v>410</v>
       </c>
-      <c r="R5" t="e">
+      <c r="S5" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S5" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U5" t="str">
+        <f>"'"&amp;Q5&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>IF(LEN(C6)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2531,19 +3194,25 @@
       <c r="P6" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_street,</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U6" t="str">
+        <f>"'"&amp;Q6&amp;"',"</f>
+        <v>'txt_street',</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>IF(LEN(C7)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2582,19 +3251,25 @@
       <c r="P7" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_alley,</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U7" t="str">
+        <f>"'"&amp;Q7&amp;"',"</f>
+        <v>'txt_alley',</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>IF(LEN(C8)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2633,19 +3308,25 @@
       <c r="P8" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_lotshape,</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U8" t="str">
+        <f>"'"&amp;Q8&amp;"',"</f>
+        <v>'txt_lotshape',</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>IF(LEN(C9)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2684,19 +3365,25 @@
       <c r="P9" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_landcontour,</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U9" t="str">
+        <f>"'"&amp;Q9&amp;"',"</f>
+        <v>'txt_landcontour',</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>IF(LEN(C10)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2735,19 +3422,25 @@
       <c r="P10" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_utilities,</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U10" t="str">
+        <f>"'"&amp;Q10&amp;"',"</f>
+        <v>'txt_utilities',</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>IF(LEN(C11)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2786,19 +3479,25 @@
       <c r="P11" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_lotconfig,</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U11" t="str">
+        <f>"'"&amp;Q11&amp;"',"</f>
+        <v>'txt_lotconfig',</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>IF(LEN(C12)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2837,19 +3536,25 @@
       <c r="P12" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_landslope,</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U12" t="str">
+        <f>"'"&amp;Q12&amp;"',"</f>
+        <v>'txt_landslope',</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>IF(LEN(C13)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2888,19 +3593,25 @@
       <c r="P13" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="R13" s="1">
+        <v>25</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_neighborhood,</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U13" t="str">
+        <f>"'"&amp;Q13&amp;"',"</f>
+        <v>'txt_neighborhood',</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>IF(LEN(C14)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2939,19 +3650,25 @@
       <c r="P14" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="R14" s="1">
+        <v>9</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_condition1,</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U14" t="str">
+        <f>"'"&amp;Q14&amp;"',"</f>
+        <v>'txt_condition1',</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>IF(LEN(C15)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -2990,19 +3707,25 @@
       <c r="P15" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="R15" s="1">
+        <v>8</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_condition2,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U15" t="str">
+        <f>"'"&amp;Q15&amp;"',"</f>
+        <v>'txt_condition2',</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>IF(LEN(C16)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3041,19 +3764,25 @@
       <c r="P16" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S16" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_bldgtype,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U16" t="str">
+        <f>"'"&amp;Q16&amp;"',"</f>
+        <v>'txt_bldgtype',</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>IF(LEN(C17)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3092,19 +3821,25 @@
       <c r="P17" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="R17" s="1">
+        <v>8</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S17" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_housestyle,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U17" t="str">
+        <f>"'"&amp;Q17&amp;"',"</f>
+        <v>'txt_housestyle',</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>IF(LEN(C18)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3140,19 +3875,29 @@
       <c r="M18">
         <v>10</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="R18" t="e">
+      <c r="P18" t="str">
+        <f>"txt_"&amp;LOWER(L18)&amp;","&amp;M18</f>
+        <v>txt_overallqual,10</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>678</v>
+      </c>
+      <c r="R18" t="s">
+        <v>679</v>
+      </c>
+      <c r="S18" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="U18" t="str">
+        <f>"'"&amp;Q18&amp;"',"</f>
+        <v>'="txt_"&amp;LOWER(M18)&amp;"',</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>IF(LEN(C19)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3188,19 +3933,29 @@
       <c r="M19">
         <v>10</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="R19" t="e">
+      <c r="P19" t="str">
+        <f>"txt_"&amp;LOWER(L19)&amp;","&amp;M19</f>
+        <v>txt_overallcond,10</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>680</v>
+      </c>
+      <c r="R19" t="s">
+        <v>681</v>
+      </c>
+      <c r="S19" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S19" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="U19" t="str">
+        <f>"'"&amp;Q19&amp;"',"</f>
+        <v>'="txt_"&amp;LOWER(M19)&amp;"',</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f>IF(LEN(C20)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3239,16 +3994,16 @@
       <c r="N20" t="s">
         <v>410</v>
       </c>
-      <c r="R20" t="e">
+      <c r="S20" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S20" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U20" t="str">
+        <f>"'"&amp;Q20&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f>IF(LEN(C21)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3281,16 +4036,16 @@
       <c r="N21" t="s">
         <v>410</v>
       </c>
-      <c r="R21" t="e">
+      <c r="S21" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S21" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U21" t="str">
+        <f>"'"&amp;Q21&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>IF(LEN(C22)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -3326,19 +4081,25 @@
       <c r="P22" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R22" s="1">
+        <v>6</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S22" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_roofstyle,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U22" t="str">
+        <f>"'"&amp;Q22&amp;"',"</f>
+        <v>'txt_roofstyle',</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>IF(LEN(C23)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3371,19 +4132,25 @@
       <c r="P23" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="R23" s="1">
+        <v>8</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_roofmatl,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U23" t="str">
+        <f>"'"&amp;Q23&amp;"',"</f>
+        <v>'txt_roofmatl',</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>IF(LEN(C24)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3422,19 +4189,25 @@
       <c r="P24" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="R24" s="1">
+        <v>15</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S24" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_exterior1st,</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U24" t="str">
+        <f>"'"&amp;Q24&amp;"',"</f>
+        <v>'txt_exterior1st',</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>IF(LEN(C25)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3473,19 +4246,25 @@
       <c r="P25" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="R25" s="1">
+        <v>16</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S25" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_exterior2nd,</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U25" t="str">
+        <f>"'"&amp;Q25&amp;"',"</f>
+        <v>'txt_exterior2nd',</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>IF(LEN(C26)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3524,19 +4303,25 @@
       <c r="P26" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="R26" s="1">
+        <v>4</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T26" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S26" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_masvnrtype,</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U26" t="str">
+        <f>"'"&amp;Q26&amp;"',"</f>
+        <v>'txt_masvnrtype',</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>IF(LEN(C27)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3575,16 +4360,16 @@
       <c r="N27" t="s">
         <v>410</v>
       </c>
-      <c r="R27" t="e">
+      <c r="S27" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S27" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U27" t="str">
+        <f>"'"&amp;Q27&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>IF(LEN(C28)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3623,19 +4408,25 @@
       <c r="P28" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="R28" s="1">
+        <v>4</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S28" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_exterqual,</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U28" t="str">
+        <f>"'"&amp;Q28&amp;"',"</f>
+        <v>'txt_exterqual',</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f>IF(LEN(C29)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3674,19 +4465,25 @@
       <c r="P29" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="R29" s="1">
+        <v>5</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S29" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_extercond,</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U29" t="str">
+        <f>"'"&amp;Q29&amp;"',"</f>
+        <v>'txt_extercond',</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f>IF(LEN(C30)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3725,19 +4522,25 @@
       <c r="P30" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="R30" s="1">
+        <v>6</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_foundation,</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U30" t="str">
+        <f>"'"&amp;Q30&amp;"',"</f>
+        <v>'txt_foundation',</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f>IF(LEN(C31)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3776,19 +4579,25 @@
       <c r="P31" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="R31" s="1">
+        <v>5</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T31" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_bsmtqual,</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U31" t="str">
+        <f>"'"&amp;Q31&amp;"',"</f>
+        <v>'txt_bsmtqual',</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>IF(LEN(C32)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3821,19 +4630,25 @@
       <c r="P32" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="R32" s="1">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T32" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_bsmtcond,</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U32" t="str">
+        <f>"'"&amp;Q32&amp;"',"</f>
+        <v>'txt_bsmtcond',</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>IF(LEN(C33)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -3869,19 +4684,25 @@
       <c r="P33" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="R33" s="1">
+        <v>5</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R33">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S33" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_bsmtexposure,</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U33" t="str">
+        <f>"'"&amp;Q33&amp;"',"</f>
+        <v>'txt_bsmtexposure',</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>IF(LEN(C34)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -3914,19 +4735,25 @@
       <c r="P34" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="R34" s="1">
+        <v>7</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R34">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_bsmtfintype1,</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U34" t="str">
+        <f>"'"&amp;Q34&amp;"',"</f>
+        <v>'txt_bsmtfintype1',</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>IF(LEN(C35)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -3962,16 +4789,16 @@
       <c r="N35" t="s">
         <v>410</v>
       </c>
-      <c r="R35" t="e">
+      <c r="S35" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S35" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U35" t="str">
+        <f>"'"&amp;Q35&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>IF(LEN(C36)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4004,19 +4831,25 @@
       <c r="P36" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="R36" s="1">
+        <v>7</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S36" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_bsmtfintype2,</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U36" t="str">
+        <f>"'"&amp;Q36&amp;"',"</f>
+        <v>'txt_bsmtfintype2',</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f>IF(LEN(C37)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -4052,16 +4885,16 @@
       <c r="N37" t="s">
         <v>410</v>
       </c>
-      <c r="R37" t="e">
+      <c r="S37" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S37" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U37" t="str">
+        <f>"'"&amp;Q37&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f>IF(LEN(C38)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4094,16 +4927,16 @@
       <c r="N38" t="s">
         <v>410</v>
       </c>
-      <c r="R38" t="e">
+      <c r="S38" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S38" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U38" t="str">
+        <f>"'"&amp;Q38&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f>IF(LEN(C39)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4142,16 +4975,16 @@
       <c r="N39" t="s">
         <v>410</v>
       </c>
-      <c r="R39" t="e">
+      <c r="S39" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S39" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U39" t="str">
+        <f>"'"&amp;Q39&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f>IF(LEN(C40)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4190,19 +5023,25 @@
       <c r="P40" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="R40" s="1">
+        <v>6</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_heating,</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U40" t="str">
+        <f>"'"&amp;Q40&amp;"',"</f>
+        <v>'txt_heating',</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f>IF(LEN(C41)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4238,19 +5077,25 @@
       <c r="P41" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="R41" s="1">
+        <v>5</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="S41" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_heatingqc,</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U41" t="str">
+        <f>"'"&amp;Q41&amp;"',"</f>
+        <v>'txt_heatingqc',</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f>IF(LEN(C42)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -4286,19 +5131,25 @@
       <c r="P42" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="R42" s="1">
+        <v>2</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="R42">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S42" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_centralair,</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U42" t="str">
+        <f>"'"&amp;Q42&amp;"',"</f>
+        <v>'txt_centralair',</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f>IF(LEN(C43)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4331,19 +5182,25 @@
       <c r="P43" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="R43" s="1">
+        <v>5</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R43">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S43" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_electrical,</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U43" t="str">
+        <f>"'"&amp;Q43&amp;"',"</f>
+        <v>'txt_electrical',</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f>IF(LEN(C44)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4382,16 +5239,16 @@
       <c r="N44" t="s">
         <v>410</v>
       </c>
-      <c r="R44" t="e">
+      <c r="S44" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S44" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U44" t="str">
+        <f>"'"&amp;Q44&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f>IF(LEN(C45)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4430,16 +5287,16 @@
       <c r="N45" t="s">
         <v>410</v>
       </c>
-      <c r="R45" t="e">
+      <c r="S45" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S45" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U45" t="str">
+        <f>"'"&amp;Q45&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f>IF(LEN(C46)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4478,16 +5335,16 @@
       <c r="N46" t="s">
         <v>410</v>
       </c>
-      <c r="R46" t="e">
+      <c r="S46" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S46" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U46" t="str">
+        <f>"'"&amp;Q46&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f>IF(LEN(C47)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4520,16 +5377,16 @@
       <c r="N47" t="s">
         <v>410</v>
       </c>
-      <c r="R47" t="e">
+      <c r="S47" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S47" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U47" t="str">
+        <f>"'"&amp;Q47&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f>IF(LEN(C48)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -4565,16 +5422,16 @@
       <c r="N48" t="s">
         <v>410</v>
       </c>
-      <c r="R48" t="e">
+      <c r="S48" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S48" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U48" t="str">
+        <f>"'"&amp;Q48&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f>IF(LEN(C49)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4607,16 +5464,16 @@
       <c r="N49" t="s">
         <v>410</v>
       </c>
-      <c r="R49" t="e">
+      <c r="S49" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S49" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U49" t="str">
+        <f>"'"&amp;Q49&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f>IF(LEN(C50)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4655,16 +5512,16 @@
       <c r="N50" t="s">
         <v>410</v>
       </c>
-      <c r="R50" t="e">
+      <c r="S50" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S50" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U50" t="str">
+        <f>"'"&amp;Q50&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f>IF(LEN(C51)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4703,16 +5560,16 @@
       <c r="N51" t="s">
         <v>410</v>
       </c>
-      <c r="R51" t="e">
+      <c r="S51" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S51" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U51" t="str">
+        <f>"'"&amp;Q51&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f>IF(LEN(C52)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4751,16 +5608,16 @@
       <c r="N52" t="s">
         <v>410</v>
       </c>
-      <c r="R52" t="e">
+      <c r="S52" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S52" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U52" t="str">
+        <f>"'"&amp;Q52&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f>IF(LEN(C53)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4799,16 +5656,16 @@
       <c r="N53" t="s">
         <v>410</v>
       </c>
-      <c r="R53" t="e">
+      <c r="S53" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S53" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U53" t="str">
+        <f>"'"&amp;Q53&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f>IF(LEN(C54)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4844,19 +5701,25 @@
       <c r="P54" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="R54" s="1">
+        <v>4</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T54" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R54">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S54" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_kitchenqual,</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U54" t="str">
+        <f>"'"&amp;Q54&amp;"',"</f>
+        <v>'txt_kitchenqual',</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f>IF(LEN(C55)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -4892,16 +5755,16 @@
       <c r="N55" t="s">
         <v>410</v>
       </c>
-      <c r="R55" t="e">
+      <c r="S55" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S55" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U55" t="str">
+        <f>"'"&amp;Q55&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f>IF(LEN(C56)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4934,19 +5797,25 @@
       <c r="P56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q56" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="R56" s="1">
+        <v>7</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T56" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R56">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S56" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_functional,</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U56" t="str">
+        <f>"'"&amp;Q56&amp;"',"</f>
+        <v>'txt_functional',</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f>IF(LEN(C57)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -4985,16 +5854,16 @@
       <c r="N57" t="s">
         <v>410</v>
       </c>
-      <c r="R57" t="e">
+      <c r="S57" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S57" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U57" t="str">
+        <f>"'"&amp;Q57&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" t="str">
         <f>IF(LEN(C58)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5033,19 +5902,25 @@
       <c r="P58" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="R58" s="1">
+        <v>6</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="S58" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_fireplacequ,</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U58" t="str">
+        <f>"'"&amp;Q58&amp;"',"</f>
+        <v>'txt_fireplacequ',</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
         <f>IF(LEN(C59)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5084,19 +5959,25 @@
       <c r="P59" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="R59" s="1">
+        <v>7</v>
+      </c>
+      <c r="S59" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S59" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_garagetype,</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U59" t="str">
+        <f>"'"&amp;Q59&amp;"',"</f>
+        <v>'txt_garagetype',</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" t="str">
         <f>IF(LEN(C60)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5135,16 +6016,16 @@
       <c r="N60" t="s">
         <v>410</v>
       </c>
-      <c r="R60" t="e">
+      <c r="S60" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S60" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U60" t="str">
+        <f>"'"&amp;Q60&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
         <f>IF(LEN(C61)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5177,19 +6058,25 @@
       <c r="P61" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q61" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="R61" s="1">
+        <v>4</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T61" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R61">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S61" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_garagefinish,</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U61" t="str">
+        <f>"'"&amp;Q61&amp;"',"</f>
+        <v>'txt_garagefinish',</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
         <f>IF(LEN(C62)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -5225,16 +6112,16 @@
       <c r="N62" t="s">
         <v>410</v>
       </c>
-      <c r="R62" t="e">
+      <c r="S62" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S62" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U62" t="str">
+        <f>"'"&amp;Q62&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f>IF(LEN(C63)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5267,16 +6154,16 @@
       <c r="N63" t="s">
         <v>410</v>
       </c>
-      <c r="R63" t="e">
+      <c r="S63" s="1">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S63" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U63" t="str">
+        <f>"'"&amp;Q63&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
         <f>IF(LEN(C64)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5315,19 +6202,25 @@
       <c r="P64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="Q64" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="R64" s="1">
+        <v>6</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R64">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S64" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_garagequal,</v>
-      </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U64" t="str">
+        <f>"'"&amp;Q64&amp;"',"</f>
+        <v>'txt_garagequal',</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
         <f>IF(LEN(C65)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5366,19 +6259,25 @@
       <c r="P65" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="R65" s="1">
+        <v>6</v>
+      </c>
+      <c r="S65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R65">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S65" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_garagecond,</v>
-      </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U65" t="str">
+        <f>"'"&amp;Q65&amp;"',"</f>
+        <v>'txt_garagecond',</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" t="str">
         <f>IF(LEN(C66)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5417,19 +6316,25 @@
       <c r="P66" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="Q66" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="R66" s="1">
+        <v>3</v>
+      </c>
+      <c r="S66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="R66">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S66" t="str">
-        <f t="shared" si="1"/>
-        <v>txt_paveddrive,</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U66" t="str">
+        <f>"'"&amp;Q66&amp;"',"</f>
+        <v>'txt_paveddrive',</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" t="str">
         <f>IF(LEN(C67)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5468,16 +6373,16 @@
       <c r="N67" t="s">
         <v>410</v>
       </c>
-      <c r="R67" t="e">
-        <f t="shared" ref="R67:R80" si="2">FIND(",",P67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S67" t="e">
-        <f t="shared" ref="S67:S80" si="3">LEFT(P67,R67)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S67" s="1">
+        <f t="shared" ref="S67:S80" si="1">M67-R67</f>
+        <v>-1</v>
+      </c>
+      <c r="U67" t="str">
+        <f>"'"&amp;Q67&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" t="str">
         <f>IF(LEN(C68)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5510,16 +6415,16 @@
       <c r="N68" t="s">
         <v>410</v>
       </c>
-      <c r="R68" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S68" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U68" t="str">
+        <f>"'"&amp;Q68&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" t="str">
         <f>IF(LEN(C69)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -5555,16 +6460,16 @@
       <c r="N69" t="s">
         <v>410</v>
       </c>
-      <c r="R69" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S69" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S69" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U69" t="str">
+        <f>"'"&amp;Q69&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" t="str">
         <f>IF(LEN(C70)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5597,16 +6502,16 @@
       <c r="N70" t="s">
         <v>410</v>
       </c>
-      <c r="R70" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S70" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S70" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U70" t="str">
+        <f>"'"&amp;Q70&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" t="str">
         <f>IF(LEN(C71)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5645,16 +6550,16 @@
       <c r="N71" t="s">
         <v>410</v>
       </c>
-      <c r="R71" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S71" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S71" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U71" t="str">
+        <f>"'"&amp;Q71&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" t="str">
         <f>IF(LEN(C72)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5693,16 +6598,16 @@
       <c r="N72" t="s">
         <v>410</v>
       </c>
-      <c r="R72" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S72" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S72" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U72" t="str">
+        <f>"'"&amp;Q72&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" t="str">
         <f>IF(LEN(C73)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5741,19 +6646,25 @@
       <c r="P73" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="Q73" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="R73" s="1">
+        <v>4</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T73" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R73">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="S73" t="str">
-        <f t="shared" si="3"/>
-        <v>txt_poolqc,</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U73" t="str">
+        <f>"'"&amp;Q73&amp;"',"</f>
+        <v>'txt_poolqc',</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" t="str">
         <f>IF(LEN(C74)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5792,19 +6703,25 @@
       <c r="P74" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="Q74" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="R74" s="1">
+        <v>5</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R74">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="S74" t="str">
-        <f t="shared" si="3"/>
-        <v>txt_fence,</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U74" t="str">
+        <f>"'"&amp;Q74&amp;"',"</f>
+        <v>'txt_fence',</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" t="str">
         <f>IF(LEN(C75)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5843,19 +6760,25 @@
       <c r="P75" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="Q75" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="R75" s="1">
+        <v>5</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T75" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R75">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="S75" t="str">
-        <f t="shared" si="3"/>
-        <v>txt_miscfeature,</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U75" t="str">
+        <f>"'"&amp;Q75&amp;"',"</f>
+        <v>'txt_miscfeature',</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
         <f>IF(LEN(C76)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5888,16 +6811,16 @@
       <c r="N76" t="s">
         <v>410</v>
       </c>
-      <c r="R76" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S76" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S76" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U76" t="str">
+        <f>"'"&amp;Q76&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" t="str">
         <f>IF(LEN(C77)&gt;15,"namaCol","--")</f>
         <v>namaCol</v>
@@ -5933,16 +6856,16 @@
       <c r="N77" t="s">
         <v>410</v>
       </c>
-      <c r="R77" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S77" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S77" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U77" t="str">
+        <f>"'"&amp;Q77&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
         <f>IF(LEN(C78)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -5975,16 +6898,16 @@
       <c r="N78" t="s">
         <v>410</v>
       </c>
-      <c r="R78" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S78" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S78" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="U78" t="str">
+        <f>"'"&amp;Q78&amp;"',"</f>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" t="str">
         <f>IF(LEN(C79)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -6023,19 +6946,25 @@
       <c r="P79" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="Q79" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="R79" s="1">
+        <v>9</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T79" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R79">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="S79" t="str">
-        <f t="shared" si="3"/>
-        <v>txt_saletype,</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U79" t="str">
+        <f>"'"&amp;Q79&amp;"',"</f>
+        <v>'txt_saletype',</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" t="str">
         <f>IF(LEN(C80)&gt;15,"namaCol","--")</f>
         <v>--</v>
@@ -6074,16 +7003,22 @@
       <c r="P80" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="Q80" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="R80" s="1">
+        <v>6</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="T80" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="R80">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="S80" t="str">
-        <f t="shared" si="3"/>
-        <v>txt_salecondition,</v>
+      <c r="U80" t="str">
+        <f>"'"&amp;Q80&amp;"',"</f>
+        <v>'txt_salecondition',</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -19053,8 +19988,5964 @@
         <v>5</v>
       </c>
     </row>
+    <row r="531" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U531" t="s">
+        <v>618</v>
+      </c>
+      <c r="V531" t="str">
+        <f>V530&amp;U531</f>
+        <v>'txt_street',</v>
+      </c>
+    </row>
+    <row r="532" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U532" t="s">
+        <v>619</v>
+      </c>
+      <c r="V532" t="str">
+        <f t="shared" ref="V532:V535" si="2">V531&amp;U532</f>
+        <v>'txt_street','txt_alley',</v>
+      </c>
+    </row>
+    <row r="533" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U533" t="s">
+        <v>620</v>
+      </c>
+      <c r="V533" t="str">
+        <f t="shared" si="2"/>
+        <v>'txt_street','txt_alley','txt_landslope',</v>
+      </c>
+    </row>
+    <row r="534" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U534" t="s">
+        <v>621</v>
+      </c>
+      <c r="V534" t="str">
+        <f t="shared" si="2"/>
+        <v>'txt_street','txt_alley','txt_landslope','txt_centralair',</v>
+      </c>
+    </row>
+    <row r="535" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U535" t="s">
+        <v>622</v>
+      </c>
+      <c r="V535" t="str">
+        <f t="shared" si="2"/>
+        <v>'txt_street','txt_alley','txt_landslope','txt_centralair','txt_paveddrive',</v>
+      </c>
+    </row>
+    <row r="538" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U538" t="s">
+        <v>623</v>
+      </c>
+      <c r="V538" t="str">
+        <f t="shared" ref="V538:V576" si="3">V537&amp;U538</f>
+        <v>'txt_mssubclass',</v>
+      </c>
+    </row>
+    <row r="539" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U539" t="s">
+        <v>624</v>
+      </c>
+      <c r="V539" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning',</v>
+      </c>
+    </row>
+    <row r="540" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U540" t="s">
+        <v>625</v>
+      </c>
+      <c r="V540" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape',</v>
+      </c>
+    </row>
+    <row r="541" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U541" t="s">
+        <v>626</v>
+      </c>
+      <c r="V541" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour',</v>
+      </c>
+    </row>
+    <row r="542" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U542" t="s">
+        <v>627</v>
+      </c>
+      <c r="V542" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities',</v>
+      </c>
+    </row>
+    <row r="543" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U543" t="s">
+        <v>628</v>
+      </c>
+      <c r="V543" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig',</v>
+      </c>
+    </row>
+    <row r="544" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U544" t="s">
+        <v>629</v>
+      </c>
+      <c r="V544" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood',</v>
+      </c>
+    </row>
+    <row r="545" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U545" t="s">
+        <v>630</v>
+      </c>
+      <c r="V545" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1',</v>
+      </c>
+    </row>
+    <row r="546" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U546" t="s">
+        <v>631</v>
+      </c>
+      <c r="V546" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2',</v>
+      </c>
+    </row>
+    <row r="547" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U547" t="s">
+        <v>632</v>
+      </c>
+      <c r="V547" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype',</v>
+      </c>
+    </row>
+    <row r="548" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U548" t="s">
+        <v>633</v>
+      </c>
+      <c r="V548" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle',</v>
+      </c>
+    </row>
+    <row r="549" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U549" t="s">
+        <v>634</v>
+      </c>
+      <c r="V549" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle',</v>
+      </c>
+    </row>
+    <row r="550" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U550" t="s">
+        <v>635</v>
+      </c>
+      <c r="V550" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl',</v>
+      </c>
+    </row>
+    <row r="551" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U551" t="s">
+        <v>636</v>
+      </c>
+      <c r="V551" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st',</v>
+      </c>
+    </row>
+    <row r="552" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U552" t="s">
+        <v>637</v>
+      </c>
+      <c r="V552" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd',</v>
+      </c>
+    </row>
+    <row r="553" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U553" t="s">
+        <v>638</v>
+      </c>
+      <c r="V553" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype',</v>
+      </c>
+    </row>
+    <row r="554" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U554" t="s">
+        <v>639</v>
+      </c>
+      <c r="V554" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual',</v>
+      </c>
+    </row>
+    <row r="555" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U555" t="s">
+        <v>640</v>
+      </c>
+      <c r="V555" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond',</v>
+      </c>
+    </row>
+    <row r="556" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U556" t="s">
+        <v>641</v>
+      </c>
+      <c r="V556" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation',</v>
+      </c>
+    </row>
+    <row r="557" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U557" t="s">
+        <v>642</v>
+      </c>
+      <c r="V557" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual',</v>
+      </c>
+    </row>
+    <row r="558" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U558" t="s">
+        <v>643</v>
+      </c>
+      <c r="V558" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond',</v>
+      </c>
+    </row>
+    <row r="559" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U559" t="s">
+        <v>644</v>
+      </c>
+      <c r="V559" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure',</v>
+      </c>
+    </row>
+    <row r="560" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U560" t="s">
+        <v>645</v>
+      </c>
+      <c r="V560" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1',</v>
+      </c>
+    </row>
+    <row r="561" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U561" t="s">
+        <v>646</v>
+      </c>
+      <c r="V561" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2',</v>
+      </c>
+    </row>
+    <row r="562" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U562" t="s">
+        <v>647</v>
+      </c>
+      <c r="V562" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating',</v>
+      </c>
+    </row>
+    <row r="563" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U563" t="s">
+        <v>648</v>
+      </c>
+      <c r="V563" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc',</v>
+      </c>
+    </row>
+    <row r="564" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U564" t="s">
+        <v>649</v>
+      </c>
+      <c r="V564" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical',</v>
+      </c>
+    </row>
+    <row r="565" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U565" t="s">
+        <v>650</v>
+      </c>
+      <c r="V565" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual',</v>
+      </c>
+    </row>
+    <row r="566" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U566" t="s">
+        <v>651</v>
+      </c>
+      <c r="V566" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional',</v>
+      </c>
+    </row>
+    <row r="567" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U567" t="s">
+        <v>652</v>
+      </c>
+      <c r="V567" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ',</v>
+      </c>
+    </row>
+    <row r="568" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U568" t="s">
+        <v>653</v>
+      </c>
+      <c r="V568" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype',</v>
+      </c>
+    </row>
+    <row r="569" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U569" t="s">
+        <v>654</v>
+      </c>
+      <c r="V569" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish',</v>
+      </c>
+    </row>
+    <row r="570" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U570" t="s">
+        <v>655</v>
+      </c>
+      <c r="V570" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish','txt_garagequal',</v>
+      </c>
+    </row>
+    <row r="571" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U571" t="s">
+        <v>656</v>
+      </c>
+      <c r="V571" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish','txt_garagequal','txt_garagecond',</v>
+      </c>
+    </row>
+    <row r="572" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U572" t="s">
+        <v>657</v>
+      </c>
+      <c r="V572" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish','txt_garagequal','txt_garagecond','txt_poolqc',</v>
+      </c>
+    </row>
+    <row r="573" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U573" t="s">
+        <v>658</v>
+      </c>
+      <c r="V573" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish','txt_garagequal','txt_garagecond','txt_poolqc','txt_fence',</v>
+      </c>
+    </row>
+    <row r="574" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U574" t="s">
+        <v>659</v>
+      </c>
+      <c r="V574" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish','txt_garagequal','txt_garagecond','txt_poolqc','txt_fence','txt_miscfeature',</v>
+      </c>
+    </row>
+    <row r="575" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U575" t="s">
+        <v>660</v>
+      </c>
+      <c r="V575" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish','txt_garagequal','txt_garagecond','txt_poolqc','txt_fence','txt_miscfeature','txt_saletype',</v>
+      </c>
+    </row>
+    <row r="576" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U576" t="s">
+        <v>661</v>
+      </c>
+      <c r="V576" t="str">
+        <f t="shared" si="3"/>
+        <v>'txt_mssubclass','txt_mszoning','txt_lotshape','txt_landcontour','txt_utilities','txt_lotconfig','txt_neighborhood','txt_condition1','txt_condition2','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_exterqual','txt_extercond','txt_foundation','txt_bsmtqual','txt_bsmtcond','txt_bsmtexposure','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_heatingqc','txt_electrical','txt_kitchenqual','txt_functional','txt_fireplacequ','txt_garagetype','txt_garagefinish','txt_garagequal','txt_garagecond','txt_poolqc','txt_fence','txt_miscfeature','txt_saletype','txt_salecondition',</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="L1:M525" xr:uid="{23832CEF-AB1A-4661-912D-510A38BFCD94}"/>
+  <autoFilter ref="B1:U525" xr:uid="{0E74AD97-EEC6-421A-A455-60CC4C7FA11E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E198720-4744-44BF-9F2F-27257AD6513E}">
+  <dimension ref="A1:AH81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="81.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="7"/>
+    <col min="31" max="31" width="14.5703125" customWidth="1"/>
+    <col min="32" max="32" width="29.28515625" customWidth="1"/>
+    <col min="33" max="33" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E1" t="s">
+        <v>807</v>
+      </c>
+      <c r="F1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="str">
+        <f>A2&amp;" "&amp;B2&amp;" "&amp;D2</f>
+        <v>'txt_mssubclass' MSSubClass MSSubClass: Identifies the type of dwelling involved in the sale.</v>
+      </c>
+      <c r="F2">
+        <f>SUM(G2:Q2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:R33" si="0">IF(G2=1,Q1&amp;","&amp;$A2,Q1)</f>
+        <v>Qualities</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:Z65" si="1">IF(H2=1,R1&amp;","&amp;$A2,R1)</f>
+        <v>Condition</v>
+      </c>
+      <c r="S2" t="str">
+        <f t="shared" ref="S2:Z65" si="2">IF(I2=1,S1&amp;","&amp;$A2,S1)</f>
+        <v>Square</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:Z65" si="3">IF(J2=1,T1&amp;","&amp;$A2,T1)</f>
+        <v>Time</v>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" ref="U2:Z65" si="4">IF(K2=1,U1&amp;","&amp;$A2,U1)</f>
+        <v>Counts</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2:Z65" si="5">IF(L2=1,V1&amp;","&amp;$A2,V1)</f>
+        <v>Types,'txt_mssubclass'</v>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" ref="W2:Z65" si="6">IF(M2=1,W1&amp;","&amp;$A2,W1)</f>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X2" t="str">
+        <f t="shared" ref="X2:Z65" si="7">IF(N2=1,X1&amp;","&amp;$A2,X1)</f>
+        <v>neighbour,'txt_mssubclass'</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Z65" si="8">IF(O2=1,Y1&amp;","&amp;$A2,Y1)</f>
+        <v>Facilities</v>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" ref="Z2:Z65" si="9">IF(P2=1,Z1&amp;","&amp;$A2,Z1)</f>
+        <v>Shapes</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="10">A3&amp;" "&amp;B3&amp;" "&amp;D3</f>
+        <v>'txt_mszoning' MSZoning MSZoning: Identifies the general zoning classification of the sale.</v>
+      </c>
+      <c r="F3">
+        <f>SUM(G3:Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="2"/>
+        <v>Square</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass'</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning'</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>809</v>
+      </c>
+      <c r="AD3">
+        <f>FIND(",",AC3)</f>
+        <v>10</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>"new_"&amp;LOWER(LEFT(AC3,AD3-1))</f>
+        <v>new_qualities</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>RIGHT(AC3,LEN(AC3)-AD3)</f>
+        <v>'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>"dfnya['"&amp;AE3&amp;"'] = "</f>
+        <v xml:space="preserve">dfnya['new_qualities'] = </v>
+      </c>
+      <c r="AH3" t="str">
+        <f>"dfnya["&amp;SUBSTITUTE(AF3,"','","'] + dfnya['")&amp;"]"</f>
+        <v>dfnya['num_overallqual'] + dfnya['txt_exterqual'] + dfnya['txt_bsmtqual'] + dfnya['txt_heatingqc'] + dfnya['num_lowqualfinsf'] + dfnya['num_halfbath'] + dfnya['num_kitchenabvgr'] + dfnya['txt_kitchenqual'] + dfnya['txt_fireplacequ'] + dfnya['txt_garagequal'] + dfnya['txt_poolqc'] + dfnya['txt_fence']</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_lotfrontage' LotFrontage LotFrontage: Linear feet of street connected to property</v>
+      </c>
+      <c r="F4">
+        <f>SUM(G4:Q4)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="2"/>
+        <v>Square</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass'</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage'</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>810</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD12" si="11">FIND(",",AC4)</f>
+        <v>10</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" ref="AE4:AE12" si="12">"new_"&amp;LOWER(LEFT(AC4,AD4-1))</f>
+        <v>new_condition</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" ref="AF4:AF12" si="13">RIGHT(AC4,LEN(AC4)-AD4)</f>
+        <v>'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond','txt_salecondition'</v>
+      </c>
+      <c r="AG4" t="str">
+        <f t="shared" ref="AG4:AG12" si="14">"dfnya['"&amp;AE4&amp;"'] = "</f>
+        <v xml:space="preserve">dfnya['new_condition'] = </v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" ref="AH4:AH12" si="15">"dfnya["&amp;SUBSTITUTE(AF4,"','","'] + dfnya['")&amp;"]"</f>
+        <v>dfnya['txt_condition1'] + dfnya['txt_condition2'] + dfnya['num_overallcond'] + dfnya['txt_extercond'] + dfnya['txt_bsmtcond'] + dfnya['txt_heatingqc'] + dfnya['txt_centralair'] + dfnya['num_2ndflrsf'] + dfnya['txt_garagecond'] + dfnya['txt_salecondition']</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_lotarea' LotArea LotArea: Lot size in square feet</v>
+      </c>
+      <c r="F5">
+        <f>SUM(G5:Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass'</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage'</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>811</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="12"/>
+        <v>new_square</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="13"/>
+        <v>'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_square'] = </v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['num_lotarea'] + dfnya['num_masvnrarea'] + dfnya['num_bsmtfinsf1'] + dfnya['num_bsmtfinsf2'] + dfnya['num_bsmtunfsf'] + dfnya['num_totalbsmtsf'] + dfnya['num_1stflrsf'] + dfnya['num_2ndflrsf'] + dfnya['num_lowqualfinsf'] + dfnya['num_grlivarea'] + dfnya['num_garagecars'] + dfnya['num_garagearea'] + dfnya['num_wooddecksf'] + dfnya['num_openporchsf'] + dfnya['num_enclosedporch'] + dfnya['num_3ssnporch'] + dfnya['num_screenporch'] + dfnya['num_poolarea']</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_street' Street Street: Type of road access to property</v>
+      </c>
+      <c r="F6">
+        <f>SUM(G6:Q6)</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street'</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street'</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>812</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="12"/>
+        <v>new_time</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="13"/>
+        <v>'num_yearbuilt','num_yearremodadd','num_garageyrblt','num_mosold','num_yrsold'</v>
+      </c>
+      <c r="AG6" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_time'] = </v>
+      </c>
+      <c r="AH6" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['num_yearbuilt'] + dfnya['num_yearremodadd'] + dfnya['num_garageyrblt'] + dfnya['num_mosold'] + dfnya['num_yrsold']</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_alley' Alley Alley: Type of alley access to property</v>
+      </c>
+      <c r="F7">
+        <f>SUM(G7:Q7)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley'</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley'</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>813</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="12"/>
+        <v>new_counts</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="13"/>
+        <v>'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="AG7" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_counts'] = </v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['num_totalbsmtsf'] + dfnya['num_bsmtfullbath'] + dfnya['num_bsmthalfbath'] + dfnya['num_fullbath'] + dfnya['num_bedroomabvgr'] + dfnya['num_totrmsabvgrd'] + dfnya['num_fireplaces'] + dfnya['num_garagecars']</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_lotshape' LotShape LotShape: General shape of property</v>
+      </c>
+      <c r="F8">
+        <f>SUM(G8:Q8)</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley'</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley'</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape'</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>814</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="12"/>
+        <v>new_types</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="13"/>
+        <v>'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional','txt_saletype'</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_types'] = </v>
+      </c>
+      <c r="AH8" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['txt_mssubclass'] + dfnya['txt_street'] + dfnya['txt_alley'] + dfnya['txt_utilities'] + dfnya['txt_bldgtype'] + dfnya['txt_housestyle'] + dfnya['txt_roofstyle'] + dfnya['txt_masvnrtype'] + dfnya['txt_foundation'] + dfnya['txt_bsmtfintype1'] + dfnya['txt_bsmtfintype2'] + dfnya['txt_heating'] + dfnya['txt_functional'] + dfnya['txt_saletype']</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_landcontour' LandContour LandContour: Flatness of the property</v>
+      </c>
+      <c r="F9">
+        <f>SUM(G9:Q9)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley'</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour'</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape'</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>819</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="12"/>
+        <v>new_interiorexterior</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="13"/>
+        <v>'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_interiorexterior'] = </v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['num_overallqual'] + dfnya['txt_roofstyle'] + dfnya['txt_roofmatl'] + dfnya['txt_exterior1st'] + dfnya['txt_exterior2nd'] + dfnya['txt_masvnrtype'] + dfnya['txt_bsmtfintype1'] + dfnya['num_bsmtfinsf1'] + dfnya['txt_bsmtfintype2'] + dfnya['num_bsmtfinsf2'] + dfnya['num_bsmtunfsf'] + dfnya['num_lowqualfinsf'] + dfnya['txt_garagefinish']</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_utilities' Utilities Utilities: Type of utilities available</v>
+      </c>
+      <c r="F10">
+        <f>SUM(G10:Q10)</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities'</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour'</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape'</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>815</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="12"/>
+        <v>new_neighbour</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="13"/>
+        <v>'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_neighbour'] = </v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['txt_mssubclass'] + dfnya['txt_mszoning'] + dfnya['num_lotfrontage'] + dfnya['txt_street'] + dfnya['txt_alley'] + dfnya['txt_landcontour'] + dfnya['txt_landslope'] + dfnya['txt_neighborhood'] + dfnya['txt_bsmtexposure'] + dfnya['txt_garagetype'] + dfnya['txt_paveddrive'] + dfnya['txt_fence']</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_lotconfig' LotConfig LotConfig: Lot configuration</v>
+      </c>
+      <c r="F11">
+        <f>SUM(G11:Q11)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities'</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour'</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig'</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>816</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="12"/>
+        <v>new_facilities</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="13"/>
+        <v>'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature','num_miscval'</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_facilities'] = </v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['txt_utilities'] + dfnya['txt_heating'] + dfnya['txt_electrical'] + dfnya['num_fireplaces'] + dfnya['txt_miscfeature'] + dfnya['num_miscval']</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_landslope' LandSlope LandSlope: Slope of property</v>
+      </c>
+      <c r="F12">
+        <f>SUM(G12:Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities'</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope'</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig'</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>817</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="12"/>
+        <v>new_shapes</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="13"/>
+        <v>'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">dfnya['new_shapes'] = </v>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="15"/>
+        <v>dfnya['txt_lotshape'] + dfnya['txt_lotconfig'] + dfnya['txt_housestyle'] + dfnya['txt_bsmtexposure']</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_neighborhood' Neighborhood Neighborhood: Physical locations within Ames city limits</v>
+      </c>
+      <c r="F13">
+        <f>SUM(G13:Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities'</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_condition1' Condition1 Condition1: Proximity to various conditions</v>
+      </c>
+      <c r="F14">
+        <f>SUM(G14:Q14)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1'</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities'</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_condition2' Condition2 Condition2: Proximity to various conditions (if more than one is present)</v>
+      </c>
+      <c r="F15">
+        <f>SUM(G15:Q15)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2'</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities'</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_bldgtype' BldgType BldgType: Type of dwelling</v>
+      </c>
+      <c r="F16">
+        <f>SUM(G16:Q16)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2'</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype'</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B17" t="s">
+        <v>571</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_housestyle' HouseStyle HouseStyle: Style of dwelling</v>
+      </c>
+      <c r="F17">
+        <f>SUM(G17:Q17)</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>Qualities</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2'</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle'</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B18" t="s">
+        <v>568</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_overallqual' OverallQual OverallQual: Rates the overall material and finish of the house</v>
+      </c>
+      <c r="F18">
+        <f>SUM(G18:Q18)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF(G18=1,Q17&amp;","&amp;$A18,Q17)</f>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2'</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle'</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual'</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B19" t="s">
+        <v>566</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_overallcond' OverallCond OverallCond: Rates the overall condition of the house</v>
+      </c>
+      <c r="F19">
+        <f>SUM(G19:Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ref="Q19:Q80" si="16">IF(G19=1,Q18&amp;","&amp;$A19,Q18)</f>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>Time</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle'</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual'</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_yearbuilt' YearBuilt YearBuilt: Original construction date</v>
+      </c>
+      <c r="F20">
+        <f>SUM(G20:Q20)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt'</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle'</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual'</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_yearremodadd' YearRemodAdd YearRemodAdd: Remodel date (same as construction date if no remodeling or additions)</v>
+      </c>
+      <c r="F21">
+        <f>SUM(G21:Q21)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle'</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual'</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_roofstyle' RoofStyle RoofStyle: Type of roof</v>
+      </c>
+      <c r="F22">
+        <f>SUM(G22:Q22)</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle'</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle'</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B23" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_roofmatl' RoofMatl RoofMatl: Roof material</v>
+      </c>
+      <c r="F23">
+        <f>SUM(G23:Q23)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle'</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl'</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B24" t="s">
+        <v>555</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_exterior1st' Exterior1st Exterior1st: Exterior covering on house</v>
+      </c>
+      <c r="F24">
+        <f>SUM(G24:Q24)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle'</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st'</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_exterior2nd' Exterior2nd Exterior2nd: Exterior covering on house (if more than one material)</v>
+      </c>
+      <c r="F25">
+        <f>SUM(G25:Q25)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle'</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd'</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_masvnrtype' MasVnrType MasVnrType: Masonry veneer type</v>
+      </c>
+      <c r="F26">
+        <f>SUM(G26:Q26)</f>
+        <v>2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea'</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype'</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_masvnrarea' MasVnrArea MasVnrArea: Masonry veneer area in square feet</v>
+      </c>
+      <c r="F27">
+        <f>SUM(G27:Q27)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual'</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype'</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B28" t="s">
+        <v>540</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">'txt_exterqual' ExterQual ExterQual: Evaluates the quality of the material on the exterior </v>
+      </c>
+      <c r="F28">
+        <f>SUM(G28:Q28)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual'</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond'</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype'</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B29" t="s">
+        <v>536</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_extercond' ExterCond ExterCond: Evaluates the present condition of the material on the exterior</v>
+      </c>
+      <c r="F29">
+        <f>SUM(G29:Q29)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual'</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond'</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype'</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B30" t="s">
+        <v>532</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_foundation' Foundation Foundation: Type of foundation</v>
+      </c>
+      <c r="F30">
+        <f>SUM(G30:Q30)</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual'</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond'</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation'</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B31" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_bsmtqual' BsmtQual BsmtQual: Evaluates the height of the basement</v>
+      </c>
+      <c r="F31">
+        <f>SUM(G31:Q31)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond'</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation'</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_bsmtcond' BsmtCond BsmtCond: Evaluates the general condition of the basement</v>
+      </c>
+      <c r="F32">
+        <f>SUM(G32:Q32)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation'</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood'</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B33" t="s">
+        <v>523</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_bsmtexposure' BsmtExposure BsmtExposure: Refers to walkout or garden level walls</v>
+      </c>
+      <c r="F33">
+        <f>SUM(G33:Q33)</f>
+        <v>2</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation'</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype'</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B34" t="s">
+        <v>521</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_bsmtfintype1' BsmtFinType1 BsmtFinType1: Rating of basement finished area</v>
+      </c>
+      <c r="F34">
+        <f>SUM(G34:Q34)</f>
+        <v>2</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea'</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1'</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1'</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_bsmtfinsf1' BsmtFinSF1 BsmtFinSF1: Type 1 finished square feet</v>
+      </c>
+      <c r="F35">
+        <f>SUM(G35:Q35)</f>
+        <v>2</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1'</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1'</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1'</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B36" t="s">
+        <v>517</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_bsmtfintype2' BsmtFinType2 BsmtFinType2: Rating of basement finished area (if multiple types)</v>
+      </c>
+      <c r="F36">
+        <f>SUM(G36:Q36)</f>
+        <v>2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1'</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2'</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2'</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_bsmtfinsf2' BsmtFinSF2 BsmtFinSF2: Type 2 finished square feet</v>
+      </c>
+      <c r="F37">
+        <f>SUM(G37:Q37)</f>
+        <v>2</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2'</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2'</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2'</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_bsmtunfsf' BsmtUnfSF BsmtUnfSF: Unfinished square feet of basement area</v>
+      </c>
+      <c r="F38">
+        <f>SUM(G38:Q38)</f>
+        <v>2</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2'</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_totalbsmtsf' TotalBsmtSF TotalBsmtSF: Total square feet of basement area</v>
+      </c>
+      <c r="F39">
+        <f>SUM(G39:Q39)</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf'</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2'</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities'</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B40" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_heating' Heating Heating: Type of heating</v>
+      </c>
+      <c r="F40">
+        <f>SUM(G40:Q40)</f>
+        <v>2</v>
+      </c>
+      <c r="L40" s="7">
+        <v>1</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual'</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond'</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf'</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating'</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B41" t="s">
+        <v>509</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_heatingqc' HeatingQC HeatingQC: Heating quality and condition</v>
+      </c>
+      <c r="F41">
+        <f>SUM(G41:Q41)</f>
+        <v>2</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc'</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc'</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf'</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating'</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B42" t="s">
+        <v>506</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_centralair' CentralAir CentralAir: Central air conditioning</v>
+      </c>
+      <c r="F42">
+        <f>SUM(G42:Q42)</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc'</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair'</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf'</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating'</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B43" t="s">
+        <v>504</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_electrical' Electrical Electrical: Electrical system</v>
+      </c>
+      <c r="F43">
+        <f>SUM(G43:Q43)</f>
+        <v>1</v>
+      </c>
+      <c r="O43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc'</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair'</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf'</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_1stflrsf' 1stFlrSF 1stFlrSF: First Floor square feet</v>
+      </c>
+      <c r="F44">
+        <f>SUM(G44:Q44)</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc'</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair'</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf'</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_2ndflrsf' 2ndFlrSF 2ndFlrSF: Second floor square feet</v>
+      </c>
+      <c r="F45">
+        <f>SUM(G45:Q45)</f>
+        <v>2</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc'</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf'</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf'</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_lowqualfinsf' LowQualFinSF LowQualFinSF: Low quality finished square feet (all floors)</v>
+      </c>
+      <c r="F46">
+        <f>SUM(G46:Q46)</f>
+        <v>3</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf'</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_grlivarea' GrLivArea GrLivArea: Above grade (ground) living area square feet</v>
+      </c>
+      <c r="F47">
+        <f>SUM(G47:Q47)</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf'</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf'</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_bsmtfullbath' BsmtFullBath BsmtFullBath: Basement full bathrooms</v>
+      </c>
+      <c r="F48">
+        <f>SUM(G48:Q48)</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf'</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath'</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_bsmthalfbath' BsmtHalfBath BsmtHalfBath: Basement half bathrooms</v>
+      </c>
+      <c r="F49">
+        <f>SUM(G49:Q49)</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf'</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath'</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_fullbath' FullBath FullBath: Full bathrooms above grade</v>
+      </c>
+      <c r="F50">
+        <f>SUM(G50:Q50)</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf'</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath'</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_halfbath' HalfBath HalfBath: Half baths above grade</v>
+      </c>
+      <c r="F51">
+        <f>SUM(G51:Q51)</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath'</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath'</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_bedroomabvgr' Bedroom Bedroom: Bedrooms above grade (does NOT include basement bedrooms)</v>
+      </c>
+      <c r="F52">
+        <f>SUM(G52:Q52)</f>
+        <v>1</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath'</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr'</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_kitchenabvgr' Kitchen Kitchen: Kitchens above grade</v>
+      </c>
+      <c r="F53">
+        <f>SUM(G53:Q53)</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr'</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr'</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B54" t="s">
+        <v>477</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_kitchenqual' KitchenQual KitchenQual: Kitchen quality</v>
+      </c>
+      <c r="F54">
+        <f>SUM(G54:Q54)</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual'</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr'</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C55" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_totrmsabvgrd' TotRmsAbvGrd TotRmsAbvGrd: Total rooms above grade (does not include bathrooms)</v>
+      </c>
+      <c r="F55">
+        <f>SUM(G55:Q55)</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual'</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd'</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating'</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B56" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_functional' Functional Functional: Home functionality (Assume typical unless deductions are warranted)</v>
+      </c>
+      <c r="F56">
+        <f>SUM(G56:Q56)</f>
+        <v>1</v>
+      </c>
+      <c r="L56" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual'</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd'</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical'</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C57" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_fireplaces' Fireplaces Fireplaces: Number of fireplaces</v>
+      </c>
+      <c r="F57">
+        <f>SUM(G57:Q57)</f>
+        <v>2</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="O57" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual'</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces'</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B58" t="s">
+        <v>466</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_fireplacequ' FireplaceQu FireplaceQu: Fireplace quality</v>
+      </c>
+      <c r="F58">
+        <f>SUM(G58:Q58)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ'</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces'</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X58" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure'</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B59" t="s">
+        <v>462</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_garagetype' GarageType GarageType: Garage location</v>
+      </c>
+      <c r="F59">
+        <f>SUM(G59:Q59)</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ'</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd'</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces'</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X59" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype'</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_garageyrblt' GarageYrBlt GarageYrBlt: Year garage was built</v>
+      </c>
+      <c r="F60">
+        <f>SUM(G60:Q60)</f>
+        <v>1</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ'</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces'</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf'</v>
+      </c>
+      <c r="X60" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype'</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B61" t="s">
+        <v>457</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_garagefinish' GarageFinish GarageFinish: Interior finish of the garage</v>
+      </c>
+      <c r="F61">
+        <f>SUM(G61:Q61)</f>
+        <v>1</v>
+      </c>
+      <c r="M61" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ'</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea'</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces'</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype'</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_garagecars' GarageCars GarageCars: Size of garage in car capacity</v>
+      </c>
+      <c r="F62">
+        <f>SUM(G62:Q62)</f>
+        <v>2</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1</v>
+      </c>
+      <c r="K62" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ'</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars'</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X62" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype'</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="10"/>
+        <v>'num_garagearea' GarageArea GarageArea: Size of garage in square feet</v>
+      </c>
+      <c r="F63">
+        <f>SUM(G63:Q63)</f>
+        <v>1</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ'</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea'</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X63" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype'</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_garagequal' GarageQual GarageQual: Garage quality</v>
+      </c>
+      <c r="F64">
+        <f>SUM(G64:Q64)</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf'</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea'</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype'</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B65" t="s">
+        <v>446</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_garagecond' GarageCond GarageCond: Garage condition</v>
+      </c>
+      <c r="F65">
+        <f>SUM(G65:Q65)</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="1"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="2"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea'</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="3"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="4"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="5"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="6"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X65" t="str">
+        <f t="shared" si="7"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype'</v>
+      </c>
+      <c r="Y65" t="str">
+        <f t="shared" si="8"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="9"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B66" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="10"/>
+        <v>'txt_paveddrive' PavedDrive PavedDrive: Paved driveway</v>
+      </c>
+      <c r="F66">
+        <f>SUM(G66:Q66)</f>
+        <v>1</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" ref="R66:Z80" si="17">IF(H66=1,R65&amp;","&amp;$A66,R65)</f>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" ref="S66:Z80" si="18">IF(I66=1,S65&amp;","&amp;$A66,S65)</f>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea'</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" ref="T66:Z80" si="19">IF(J66=1,T65&amp;","&amp;$A66,T65)</f>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" ref="U66:Z80" si="20">IF(K66=1,U65&amp;","&amp;$A66,U65)</f>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" ref="V66:Z80" si="21">IF(L66=1,V65&amp;","&amp;$A66,V65)</f>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" ref="W66:Z80" si="22">IF(M66=1,W65&amp;","&amp;$A66,W65)</f>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X66" t="str">
+        <f t="shared" ref="X66:Z80" si="23">IF(N66=1,X65&amp;","&amp;$A66,X65)</f>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y66" t="str">
+        <f t="shared" ref="Y66:Z80" si="24">IF(O66=1,Y65&amp;","&amp;$A66,Y65)</f>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" ref="Z66:Z80" si="25">IF(P66=1,Z65&amp;","&amp;$A66,Z65)</f>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E80" si="26">A67&amp;" "&amp;B67&amp;" "&amp;D67</f>
+        <v>'num_wooddecksf' WoodDeckSF WoodDeckSF: Wood deck area in square feet</v>
+      </c>
+      <c r="F67">
+        <f>SUM(G67:Q67)</f>
+        <v>1</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf'</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X67" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y67" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_openporchsf' OpenPorchSF OpenPorchSF: Open porch area in square feet</v>
+      </c>
+      <c r="F68">
+        <f>SUM(G68:Q68)</f>
+        <v>1</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf'</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X68" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y68" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C69" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_enclosedporch' EnclosedPorch EnclosedPorch: Enclosed porch area in square feet</v>
+      </c>
+      <c r="F69">
+        <f>SUM(G69:Q69)</f>
+        <v>1</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch'</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U69" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X69" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y69" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C70" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_3ssnporch' 3SsnPorch 3SsnPorch: Three season porch area in square feet</v>
+      </c>
+      <c r="F70">
+        <f>SUM(G70:Q70)</f>
+        <v>1</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch'</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X70" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y70" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C71" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_screenporch' ScreenPorch ScreenPorch: Screen porch area in square feet</v>
+      </c>
+      <c r="F71">
+        <f>SUM(G71:Q71)</f>
+        <v>1</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch'</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W71" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X71" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C72" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_poolarea' PoolArea PoolArea: Pool area in square feet</v>
+      </c>
+      <c r="F72">
+        <f>SUM(G72:Q72)</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal'</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T72" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U72" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V72" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W72" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X72" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y72" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B73" t="s">
+        <v>424</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="26"/>
+        <v>'txt_poolqc' PoolQC PoolQC: Pool quality</v>
+      </c>
+      <c r="F73">
+        <f>SUM(G73:Q73)</f>
+        <v>1</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc'</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T73" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U73" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V73" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W73" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X73" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive'</v>
+      </c>
+      <c r="Y73" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="B74" t="s">
+        <v>420</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="26"/>
+        <v>'txt_fence' Fence Fence: Fence quality</v>
+      </c>
+      <c r="F74">
+        <f>SUM(G74:Q74)</f>
+        <v>2</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="N74" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T74" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U74" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V74" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W74" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X74" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="Y74" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces'</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B75" t="s">
+        <v>416</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="26"/>
+        <v>'txt_miscfeature' MiscFeature MiscFeature: Miscellaneous feature not covered in other categories</v>
+      </c>
+      <c r="F75">
+        <f>SUM(G75:Q75)</f>
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="R75" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T75" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U75" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V75" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W75" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X75" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="Y75" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature'</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_miscval' MiscVal MiscVal: $Value of miscellaneous feature</v>
+      </c>
+      <c r="F76">
+        <f>SUM(G76:Q76)</f>
+        <v>1</v>
+      </c>
+      <c r="O76" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="R76" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T76" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt'</v>
+      </c>
+      <c r="U76" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V76" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W76" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X76" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="Y76" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature','num_miscval'</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C77" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_mosold' MoSold MoSold: Month Sold (MM)</v>
+      </c>
+      <c r="F77">
+        <f>SUM(G77:Q77)</f>
+        <v>1</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="R77" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T77" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt','num_mosold'</v>
+      </c>
+      <c r="U77" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V77" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W77" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X77" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="Y77" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature','num_miscval'</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="26"/>
+        <v>'num_yrsold' YrSold YrSold: Year Sold (YYYY)</v>
+      </c>
+      <c r="F78">
+        <f>SUM(G78:Q78)</f>
+        <v>1</v>
+      </c>
+      <c r="J78" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="R78" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T78" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt','num_mosold','num_yrsold'</v>
+      </c>
+      <c r="U78" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V78" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional'</v>
+      </c>
+      <c r="W78" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X78" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="Y78" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature','num_miscval'</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B79" t="s">
+        <v>407</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="26"/>
+        <v>'txt_saletype' SaleType SaleType: Type of sale</v>
+      </c>
+      <c r="F79">
+        <f>SUM(G79:Q79)</f>
+        <v>1</v>
+      </c>
+      <c r="L79" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="R79" t="str">
+        <f t="shared" si="17"/>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond'</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T79" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt','num_mosold','num_yrsold'</v>
+      </c>
+      <c r="U79" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional','txt_saletype'</v>
+      </c>
+      <c r="W79" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X79" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="Y79" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature','num_miscval'</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B80" t="s">
+        <v>404</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="26"/>
+        <v>'txt_salecondition' SaleCondition SaleCondition: Condition of sale</v>
+      </c>
+      <c r="F80">
+        <f>SUM(G80:Q80)</f>
+        <v>1</v>
+      </c>
+      <c r="H80" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="16"/>
+        <v>Qualities,'num_overallqual','txt_exterqual','txt_bsmtqual','txt_heatingqc','num_lowqualfinsf','num_halfbath','num_kitchenabvgr','txt_kitchenqual','txt_fireplacequ','txt_garagequal','txt_poolqc','txt_fence'</v>
+      </c>
+      <c r="R80" t="str">
+        <f t="shared" ref="R34:R80" si="27">IF(H80=1,R79&amp;","&amp;$A80,R79)</f>
+        <v>Condition,'txt_condition1','txt_condition2','num_overallcond','txt_extercond','txt_bsmtcond','txt_heatingqc','txt_centralair','num_2ndflrsf','txt_garagecond','txt_salecondition'</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="18"/>
+        <v>Square,'num_lotarea','num_masvnrarea','num_bsmtfinsf1','num_bsmtfinsf2','num_bsmtunfsf','num_totalbsmtsf','num_1stflrsf','num_2ndflrsf','num_lowqualfinsf','num_grlivarea','num_garagecars','num_garagearea','num_wooddecksf','num_openporchsf','num_enclosedporch','num_3ssnporch','num_screenporch','num_poolarea'</v>
+      </c>
+      <c r="T80" t="str">
+        <f t="shared" si="19"/>
+        <v>Time,'num_yearbuilt','num_yearremodadd','num_garageyrblt','num_mosold','num_yrsold'</v>
+      </c>
+      <c r="U80" t="str">
+        <f t="shared" si="20"/>
+        <v>Counts,'num_totalbsmtsf','num_bsmtfullbath','num_bsmthalfbath','num_fullbath','num_bedroomabvgr','num_totrmsabvgrd','num_fireplaces','num_garagecars'</v>
+      </c>
+      <c r="V80" t="str">
+        <f t="shared" si="21"/>
+        <v>Types,'txt_mssubclass','txt_street','txt_alley','txt_utilities','txt_bldgtype','txt_housestyle','txt_roofstyle','txt_masvnrtype','txt_foundation','txt_bsmtfintype1','txt_bsmtfintype2','txt_heating','txt_functional','txt_saletype'</v>
+      </c>
+      <c r="W80" t="str">
+        <f t="shared" si="22"/>
+        <v>InteriorExterior,'num_overallqual','txt_roofstyle','txt_roofmatl','txt_exterior1st','txt_exterior2nd','txt_masvnrtype','txt_bsmtfintype1','num_bsmtfinsf1','txt_bsmtfintype2','num_bsmtfinsf2','num_bsmtunfsf','num_lowqualfinsf','txt_garagefinish'</v>
+      </c>
+      <c r="X80" t="str">
+        <f t="shared" si="23"/>
+        <v>neighbour,'txt_mssubclass','txt_mszoning','num_lotfrontage','txt_street','txt_alley','txt_landcontour','txt_landslope','txt_neighborhood','txt_bsmtexposure','txt_garagetype','txt_paveddrive','txt_fence'</v>
+      </c>
+      <c r="Y80" t="str">
+        <f t="shared" si="24"/>
+        <v>Facilities,'txt_utilities','txt_heating','txt_electrical','num_fireplaces','txt_miscfeature','num_miscval'</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="25"/>
+        <v>Shapes,'txt_lotshape','txt_lotconfig','txt_housestyle','txt_bsmtexposure'</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G524" xr:uid="{5E198720-4744-44BF-9F2F-27257AD6513E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>